--- a/app/api/domain/excel/山田太郎-2022年9月.xlsx
+++ b/app/api/domain/excel/山田太郎-2022年9月.xlsx
@@ -1099,14 +1099,14 @@
       </c>
       <c r="B14" s="13" t="inlineStr">
         <is>
-          <t>9月7日</t>
+          <t>9月8日</t>
         </is>
       </c>
       <c r="C14" s="30" t="n"/>
       <c r="D14" s="31" t="n"/>
       <c r="E14" s="13" t="inlineStr">
         <is>
-          <t>水</t>
+          <t>木</t>
         </is>
       </c>
       <c r="F14" s="30" t="n"/>
@@ -1163,15 +1163,23 @@
       <c r="A15" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="13" t="n"/>
+      <c r="B15" s="13" t="inlineStr">
+        <is>
+          <t>9月9日</t>
+        </is>
+      </c>
       <c r="C15" s="30" t="n"/>
       <c r="D15" s="31" t="n"/>
-      <c r="E15" s="13" t="n"/>
+      <c r="E15" s="13" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
       <c r="F15" s="30" t="n"/>
       <c r="G15" s="31" t="n"/>
       <c r="H15" s="9" t="inlineStr">
         <is>
-          <t>:</t>
+          <t>8:15</t>
         </is>
       </c>
       <c r="I15" s="30" t="n"/>
@@ -1183,20 +1191,24 @@
       </c>
       <c r="L15" s="11" t="inlineStr">
         <is>
-          <t>:</t>
+          <t>8:30</t>
         </is>
       </c>
       <c r="M15" s="30" t="n"/>
       <c r="N15" s="31" t="n"/>
       <c r="O15" s="12" t="inlineStr">
         <is>
-          <t>時間</t>
+          <t>0.25時間</t>
         </is>
       </c>
       <c r="P15" s="30" t="n"/>
       <c r="Q15" s="30" t="n"/>
       <c r="R15" s="31" t="n"/>
-      <c r="S15" s="13" t="n"/>
+      <c r="S15" s="13" t="inlineStr">
+        <is>
+          <t>eラーニング設定業務 休憩:0.0時間</t>
+        </is>
+      </c>
       <c r="T15" s="30" t="n"/>
       <c r="U15" s="30" t="n"/>
       <c r="V15" s="30" t="n"/>
@@ -1217,15 +1229,23 @@
       <c r="A16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="13" t="n"/>
+      <c r="B16" s="13" t="inlineStr">
+        <is>
+          <t>9月10日</t>
+        </is>
+      </c>
       <c r="C16" s="30" t="n"/>
       <c r="D16" s="31" t="n"/>
-      <c r="E16" s="13" t="n"/>
+      <c r="E16" s="13" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
       <c r="F16" s="30" t="n"/>
       <c r="G16" s="31" t="n"/>
       <c r="H16" s="9" t="inlineStr">
         <is>
-          <t>:</t>
+          <t>8:15</t>
         </is>
       </c>
       <c r="I16" s="30" t="n"/>
@@ -1237,20 +1257,24 @@
       </c>
       <c r="L16" s="11" t="inlineStr">
         <is>
-          <t>:</t>
+          <t>8:30</t>
         </is>
       </c>
       <c r="M16" s="30" t="n"/>
       <c r="N16" s="31" t="n"/>
       <c r="O16" s="12" t="inlineStr">
         <is>
-          <t>時間</t>
+          <t>0.25時間</t>
         </is>
       </c>
       <c r="P16" s="30" t="n"/>
       <c r="Q16" s="30" t="n"/>
       <c r="R16" s="31" t="n"/>
-      <c r="S16" s="13" t="n"/>
+      <c r="S16" s="13" t="inlineStr">
+        <is>
+          <t>eラーニング設定業務 休憩:0.0時間</t>
+        </is>
+      </c>
       <c r="T16" s="30" t="n"/>
       <c r="U16" s="30" t="n"/>
       <c r="V16" s="30" t="n"/>
@@ -2197,7 +2221,7 @@
       <c r="N34" s="26" t="n"/>
       <c r="O34" s="12" t="inlineStr">
         <is>
-          <t>0.25時間</t>
+          <t>0.75時間</t>
         </is>
       </c>
       <c r="P34" s="25" t="n"/>

--- a/app/api/domain/excel/山田太郎-2022年9月.xlsx
+++ b/app/api/domain/excel/山田太郎-2022年9月.xlsx
@@ -1099,14 +1099,14 @@
       </c>
       <c r="B14" s="13" t="inlineStr">
         <is>
-          <t>9月8日</t>
+          <t>9月10日</t>
         </is>
       </c>
       <c r="C14" s="30" t="n"/>
       <c r="D14" s="31" t="n"/>
       <c r="E14" s="13" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>土</t>
         </is>
       </c>
       <c r="F14" s="30" t="n"/>
@@ -1163,23 +1163,15 @@
       <c r="A15" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="13" t="inlineStr">
-        <is>
-          <t>9月9日</t>
-        </is>
-      </c>
+      <c r="B15" s="13" t="n"/>
       <c r="C15" s="30" t="n"/>
       <c r="D15" s="31" t="n"/>
-      <c r="E15" s="13" t="inlineStr">
-        <is>
-          <t>金</t>
-        </is>
-      </c>
+      <c r="E15" s="13" t="n"/>
       <c r="F15" s="30" t="n"/>
       <c r="G15" s="31" t="n"/>
       <c r="H15" s="9" t="inlineStr">
         <is>
-          <t>8:15</t>
+          <t>:</t>
         </is>
       </c>
       <c r="I15" s="30" t="n"/>
@@ -1191,24 +1183,20 @@
       </c>
       <c r="L15" s="11" t="inlineStr">
         <is>
-          <t>8:30</t>
+          <t>:</t>
         </is>
       </c>
       <c r="M15" s="30" t="n"/>
       <c r="N15" s="31" t="n"/>
       <c r="O15" s="12" t="inlineStr">
         <is>
-          <t>0.25時間</t>
+          <t>時間</t>
         </is>
       </c>
       <c r="P15" s="30" t="n"/>
       <c r="Q15" s="30" t="n"/>
       <c r="R15" s="31" t="n"/>
-      <c r="S15" s="13" t="inlineStr">
-        <is>
-          <t>eラーニング設定業務 休憩:0.0時間</t>
-        </is>
-      </c>
+      <c r="S15" s="13" t="n"/>
       <c r="T15" s="30" t="n"/>
       <c r="U15" s="30" t="n"/>
       <c r="V15" s="30" t="n"/>
@@ -1229,23 +1217,15 @@
       <c r="A16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="13" t="inlineStr">
-        <is>
-          <t>9月10日</t>
-        </is>
-      </c>
+      <c r="B16" s="13" t="n"/>
       <c r="C16" s="30" t="n"/>
       <c r="D16" s="31" t="n"/>
-      <c r="E16" s="13" t="inlineStr">
-        <is>
-          <t>土</t>
-        </is>
-      </c>
+      <c r="E16" s="13" t="n"/>
       <c r="F16" s="30" t="n"/>
       <c r="G16" s="31" t="n"/>
       <c r="H16" s="9" t="inlineStr">
         <is>
-          <t>8:15</t>
+          <t>:</t>
         </is>
       </c>
       <c r="I16" s="30" t="n"/>
@@ -1257,24 +1237,20 @@
       </c>
       <c r="L16" s="11" t="inlineStr">
         <is>
-          <t>8:30</t>
+          <t>:</t>
         </is>
       </c>
       <c r="M16" s="30" t="n"/>
       <c r="N16" s="31" t="n"/>
       <c r="O16" s="12" t="inlineStr">
         <is>
-          <t>0.25時間</t>
+          <t>時間</t>
         </is>
       </c>
       <c r="P16" s="30" t="n"/>
       <c r="Q16" s="30" t="n"/>
       <c r="R16" s="31" t="n"/>
-      <c r="S16" s="13" t="inlineStr">
-        <is>
-          <t>eラーニング設定業務 休憩:0.0時間</t>
-        </is>
-      </c>
+      <c r="S16" s="13" t="n"/>
       <c r="T16" s="30" t="n"/>
       <c r="U16" s="30" t="n"/>
       <c r="V16" s="30" t="n"/>
@@ -2221,7 +2197,7 @@
       <c r="N34" s="26" t="n"/>
       <c r="O34" s="12" t="inlineStr">
         <is>
-          <t>0.75時間</t>
+          <t>0.25時間</t>
         </is>
       </c>
       <c r="P34" s="25" t="n"/>
